--- a/sra-cc-images.xlsx
+++ b/sra-cc-images.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40620" yWindow="2800" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="7500" yWindow="2880" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>https://cdn.pixabay.com/photo/2017/12/28/04/15/hand-3044387_960_720.jpg</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>science-1182713_1920.jpg</t>
+  </si>
+  <si>
+    <t>Photo by bruce mars from Pexels https://www.pexels.com/photo/man-wearing-gray-blazer-838413/</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/en/office-work-computer-portable-2009693/</t>
   </si>
 </sst>
 </file>
@@ -359,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -372,7 +378,7 @@
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,6 +398,16 @@
       </c>
       <c r="D2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
